--- a/medicine/Pharmacie/Antihistaminique/Antihistaminique.xlsx
+++ b/medicine/Pharmacie/Antihistaminique/Antihistaminique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antihistaminique est un médicament utilisé comme antagoniste compétitif des récepteurs de l'histamine, qui sert donc à réduire ou à éliminer les effets de ce médiateur chimique endogène libéré, entre autres, au cours des réactions allergiques. Dans l'usage courant, le terme antihistaminique désigne davantage les antagonistes des récepteurs H1 (ou antihistaminiques H1) que les antagonistes des récepteurs H2. 
 Il existe d'autres agents à action antihistaminergique, des antagonistes non compétitifs qui empêchent la transformation de l'histidine (un acide aminé) en histamine en inhibant l'activité enzymatique de l'histidine décarboxylase ; ce sont des antihistaminiques atypiques.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Si la notion d'antihistaminique a pris un essor considérable dans le monde, son berceau fut le laboratoire de Fourneau[1] à l'Institut Pasteur ; ses premiers pas furent guidés par Daniel Bovet, Anne-Marie Staub[2], Bernard Halpern et leurs collaborateurs ; leurs premières réalisations pratiques sortirent des usines de la société Rhône-Poulenc. Ceci fut d'ailleurs constaté avec unanimité par les savants étrangers, américains, suisses ou anglais et reçut une véritable consécration lors du Council on Pharmacy and Chemistry de l'Association médicale américaine, qui se tint en novembre 1946 pour traiter précisément des antihistaminiques. » Marcel Delépine[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Si la notion d'antihistaminique a pris un essor considérable dans le monde, son berceau fut le laboratoire de Fourneau à l'Institut Pasteur ; ses premiers pas furent guidés par Daniel Bovet, Anne-Marie Staub, Bernard Halpern et leurs collaborateurs ; leurs premières réalisations pratiques sortirent des usines de la société Rhône-Poulenc. Ceci fut d'ailleurs constaté avec unanimité par les savants étrangers, américains, suisses ou anglais et reçut une véritable consécration lors du Council on Pharmacy and Chemistry de l'Association médicale américaine, qui se tint en novembre 1946 pour traiter précisément des antihistaminiques. » Marcel Delépine.
 </t>
         </is>
       </c>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indications
-Les antihistaminiques H1 sont utilisés dans le traitement d'états allergiques, où l'histamine joue un rôle médiateur. Spécifiquement, ces indications peuvent comprendre : (Rossi, 2004)
+          <t>Indications</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les antihistaminiques H1 sont utilisés dans le traitement d'états allergiques, où l'histamine joue un rôle médiateur. Spécifiquement, ces indications peuvent comprendre : (Rossi, 2004)
 rhinite allergique
 conjonctivite allergique
 maladies allergiques dermatologiques (dermatite de contact)
@@ -559,10 +578,7 @@
 utilisé devant une toux coqueluchée
 Selon la nature de l'état allergique, les antihistaminiques peuvent être administrés :
 en administration locale (topique) (au travers de la peau, du nez ou des yeux)
-ou par voie systémique.
-Effets secondaires
-Peuvent provoquer une somnolence diurne et des troubles cognitifs par leurs effets anticholinergiques.
-</t>
+ou par voie systémique.</t>
         </is>
       </c>
     </row>
@@ -587,82 +603,367 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Utilisation clinique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Effets secondaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peuvent provoquer une somnolence diurne et des troubles cognitifs par leurs effets anticholinergiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Antihistaminiques H1 de première génération</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alcylamines
-Bromphéniramine
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Alcylamines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bromphéniramine
 Chlorphéniramine (chlorphénamine)
 Dexchlorphéniramine (dexchlorphénamine)
 Phéniramine
 Triprolidine
-Dimétindène
-Éthanolamines
-La diphénhydramine est la première molécule découverte de cette classe. Ces produits présentent d'importants effets indésirables anti-cholinergiques comme la sédation, mais la fréquence des effets indésirables gastro-intestinaux est assez faible. (Nelson, 2002 ; Rossi, 2004.)
+Dimétindène</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Éthanolamines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La diphénhydramine est la première molécule découverte de cette classe. Ces produits présentent d'importants effets indésirables anti-cholinergiques comme la sédation, mais la fréquence des effets indésirables gastro-intestinaux est assez faible. (Nelson, 2002 ; Rossi, 2004.)
 Carbinoxamine
 Clémastine
 Dimenhydrinate
 Diphenhydramine
 Doxylamine
-Phenyltoloxamine
-Éthylènediamines
-Antazoline
-Mépyramine (pyrilamine)
-Phénothiazines
-Prométhazine
+Phenyltoloxamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Éthylènediamines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Antazoline
+Mépyramine (pyrilamine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Phénothiazines</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prométhazine
 Alimémazine
 Oxomémazine
 Chlorpromazine
 Cyamémazine
-Lévomépromazine
-Pipérazines
-Hydroxyzine
+Lévomépromazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pipérazines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hydroxyzine
 Méclizine
 Pipéroxane (bénodaïne)
 Prochlorpérazine
-Trifluopérazine
-Pipéridines
-Azatadine
+Trifluopérazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pipéridines</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Azatadine
 Cyproheptadine
 Diphenylpyraline
-Kétotifène
-Autres
-Doxépine</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Antihistaminique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Kétotifène</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de première génération</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Doxépine</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Antihistaminiques H1 de deuxième génération</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alkylamines
-Acrivastine
-Pipérazines
-Astémizole
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Alkylamines</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Acrivastine</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H1 de deuxième génération</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pipérazines</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Astémizole
 Cétirizine
 Desloratadine
 Ébastine
@@ -675,80 +976,224 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Antihistaminique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Pharmacophore</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le pharmacophore est la partie pharmacologiquement active d'une classe de molécule. Elle est le squelette minimum nécessaire à l'action recherché de cette classe moléculaire.
-Autres
-Bilastine</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Antihistaminique</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pharmacophore est la partie pharmacologiquement active d'une classe de molécule. Elle est le squelette minimum nécessaire à l'action recherché de cette classe moléculaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pharmacophore</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bilastine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Autres agents</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inhibiteurs de la libération de l'histamine
-Ces substances agissent en évitant la dégranulation et la libération de médiateurs par les mastocytes.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la libération de l'histamine</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Ces substances agissent en évitant la dégranulation et la libération de médiateurs par les mastocytes.
 Cromoglicate
-Nédocromil
-Inhibiteurs de la L-Histidine décarboxylase
-On les appelle encore antihistaminiques atypiques.
+Nédocromil</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Autres agents</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Inhibiteurs de la L-Histidine décarboxylase</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>On les appelle encore antihistaminiques atypiques.
 Catéchine
-Tritoqualine
-Antihistaminiques H2
-Les récepteurs histaminiques H2 sont localisés dans la paroi stomacale (au niveau de la membrane plasmique du pôle basal des cellules pariétales) et ont comme fonction la régulation de l’acidité gastrique (en modulant l'activité des Pompes à Protons H+/K+ ATP-dépendantes intégrées dans la membrane plasmique du pôle apical de ces mêmes cellules pariétales).
+Tritoqualine</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Autres agents</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Les récepteurs histaminiques H2 sont localisés dans la paroi stomacale (au niveau de la membrane plasmique du pôle basal des cellules pariétales) et ont comme fonction la régulation de l’acidité gastrique (en modulant l'activité des Pompes à Protons H+/K+ ATP-dépendantes intégrées dans la membrane plasmique du pôle apical de ces mêmes cellules pariétales).
 Cimétidine
 Famotidine
 Nizatidine
-Ranitidine
-Antihistaminiques H3 et H4 [4]
-Les récepteurs histaminiques H3 sont des autorécepteurs présynaptiques des neurones centraux et ont comme fonction d'inhiber la libération de l'histamine, acétylcholine, noradrénaline, sérotonine...
+Ranitidine</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Antihistaminique</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antihistaminique</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Autres agents</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Antihistaminiques H3 et H4 [4]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les récepteurs histaminiques H3 sont des autorécepteurs présynaptiques des neurones centraux et ont comme fonction d'inhiber la libération de l'histamine, acétylcholine, noradrénaline, sérotonine...
 La capacité du récepteur de H3 de moduler des neurotransmetteurs variés fait de ce récepteur un nouvel objectif thérapeutique dans le soulagement des symptômes provoqués par plusieurs pathologies dont les troubles des mouvements (apraxie), l'obésité, la schizophrénie, le TDAH et les dysfonctionnements de la régulation de la balance entre l'état de veille et le sommeil.
 Les récepteurs histaminiques H4 sont exprimés par les cellules hématopoïétiques et interviennent dans la différenciation des myéloblastes et promyélocytes, dans la chimiotaxie des éosinophiles et dans la libération de l'interleukine Il-16. Le récepteur H4 est un objectif potentiel pour le traitement allergique et les états inflammatoires tels que l'asthme et la rhinite allergique. 
 </t>
